--- a/data/popularvotes.xlsx
+++ b/data/popularvotes.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="146">
   <si>
     <t>RepPopular</t>
   </si>
@@ -452,6 +452,15 @@
   </si>
   <si>
     <t>Budd</t>
+  </si>
+  <si>
+    <t>PopCounter</t>
+  </si>
+  <si>
+    <t>RepCounter</t>
+  </si>
+  <si>
+    <t>ClosestCounter</t>
   </si>
 </sst>
 </file>
@@ -459,8 +468,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="174" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -511,7 +520,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="113">
+  <cellStyleXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -625,18 +634,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="113">
+  <cellStyles count="133">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -693,6 +723,16 @@
     <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -749,6 +789,16 @@
     <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1078,25 +1128,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
@@ -1138,12 +1189,21 @@
       <c r="O1" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="6">
         <v>63153387</v>
       </c>
       <c r="C2" s="4">
@@ -1195,82 +1255,94 @@
         <f>K2-N2</f>
         <v>215.10237569389577</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" s="4">
+        <f>0.5-C2</f>
+        <v>-5.5117800140327411E-3</v>
+      </c>
+      <c r="Q2" s="5">
+        <f>0.5-H2</f>
+        <v>-5.402298850574716E-2</v>
+      </c>
+      <c r="R2">
+        <f>0.5-(ROUND(N2,0)/ROUND(K2,0))</f>
+        <v>-5.7471264367816577E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="6">
         <v>1442056</v>
       </c>
       <c r="C17" s="4">
@@ -1320,12 +1392,24 @@
         <f>K17-N17</f>
         <v>3.7958774428212321</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17" s="4">
+        <f>0.5-C17</f>
+        <v>-7.8235839686529807E-2</v>
+      </c>
+      <c r="Q17" s="5">
+        <f>0.5-H17</f>
+        <v>-0.27777777777777779</v>
+      </c>
+      <c r="R17">
+        <f>0.5-(ROUND(N17,0)/ROUND(K17,0))</f>
+        <v>-5.555555555555558E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="6">
         <v>810908</v>
       </c>
       <c r="C18" s="4">
@@ -1375,32 +1459,44 @@
         <f>K18-N18</f>
         <v>1.8112479798644356</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18" s="4">
+        <f>0.5-C18</f>
+        <v>-4.7188005033891089E-2</v>
+      </c>
+      <c r="Q18" s="5">
+        <f>0.5-H18</f>
+        <v>-0.25</v>
+      </c>
+      <c r="R18">
+        <f>0.5-(ROUND(N18,0)/ROUND(K18,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="6">
         <v>890968</v>
       </c>
       <c r="C23" s="4">
@@ -1450,72 +1546,84 @@
         <f>K23-N23</f>
         <v>4.9862681700350393</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23" s="4">
+        <f>0.5-C23</f>
+        <v>0.12328352125437986</v>
+      </c>
+      <c r="Q23" s="5">
+        <f>0.5-H23</f>
+        <v>0.375</v>
+      </c>
+      <c r="R23">
+        <f>0.5-(ROUND(N23,0)/ROUND(K23,0))</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="8">
         <v>2380226</v>
       </c>
       <c r="C36" s="4">
@@ -1565,63 +1673,75 @@
         <f>K36-N36</f>
         <v>6.1850173595969373</v>
       </c>
-    </row>
-    <row r="37" spans="1:15">
+      <c r="P36" s="4">
+        <f>0.5-C36</f>
+        <v>-2.4229433877158701E-2</v>
+      </c>
+      <c r="Q36" s="5">
+        <f>0.5-H36</f>
+        <v>-0.26923076923076927</v>
+      </c>
+      <c r="R36">
+        <f>0.5-(ROUND(N36,0)/ROUND(K36,0))</f>
+        <v>-3.8461538461538436E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:18">
       <c r="A38" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:18">
       <c r="A39" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:18">
       <c r="A40" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:18">
       <c r="A41" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:18">
       <c r="A43" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:18">
       <c r="A46" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:18">
       <c r="A47" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:18">
       <c r="A48" t="s">
         <v>53</v>
       </c>
